--- a/biology/Botanique/Scierie_à_vent/Scierie_à_vent.xlsx
+++ b/biology/Botanique/Scierie_à_vent/Scierie_à_vent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Scierie_%C3%A0_vent</t>
+          <t>Scierie_à_vent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un moulin à scier ou moulin-scierie ou scierie à vent (en néerlandais « zaagmolen » ou « houtzaagmolen » ou ses variantes « paltrokmolen », « stellingmolen ») est une scierie à bois mue par le vent, soit un moulin à vent dédié au sciage du bois. On doit cette invention à Cornelis Corneliszoon van Uitgeest  (Corneille Van Uitgust)  qui réussit en 1592 à utiliser un vilebrequin pour changer le mouvement circulaire d'un moulin en mouvement de va-et-vient d'une scie. Sur les 584 éoliennes industrielles dénombrées sur la rivière Zaan en 1731, 256 étaient utilisées pour scier du bois[1]. 
-Ces scieries pourront traiter 60 billes en 4 à 5 jours, alors que le sciage à la main de la même quantité de bois prenait 120 jours. Cette innovation technologique et son intégration étroite avec les chaînes d'approvisionnement et les chantiers navals permettront aux Hollandais de construire des centaines de navires de haute mer au début du XVIIe siècle, consommant au passage annuellement près de 320 000 m3 de chêne[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un moulin à scier ou moulin-scierie ou scierie à vent (en néerlandais « zaagmolen » ou « houtzaagmolen » ou ses variantes « paltrokmolen », « stellingmolen ») est une scierie à bois mue par le vent, soit un moulin à vent dédié au sciage du bois. On doit cette invention à Cornelis Corneliszoon van Uitgeest  (Corneille Van Uitgust)  qui réussit en 1592 à utiliser un vilebrequin pour changer le mouvement circulaire d'un moulin en mouvement de va-et-vient d'une scie. Sur les 584 éoliennes industrielles dénombrées sur la rivière Zaan en 1731, 256 étaient utilisées pour scier du bois. 
+Ces scieries pourront traiter 60 billes en 4 à 5 jours, alors que le sciage à la main de la même quantité de bois prenait 120 jours. Cette innovation technologique et son intégration étroite avec les chaînes d'approvisionnement et les chantiers navals permettront aux Hollandais de construire des centaines de navires de haute mer au début du XVIIe siècle, consommant au passage annuellement près de 320 000 m3 de chêne.  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Scierie_%C3%A0_vent</t>
+          <t>Scierie_à_vent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ailes du moulin sont fixées sur l'arbre tournant. Centrée sur l'arbre, la roue principale ou rouet en pousse une autre, placée immédiatement au-dessous, et fixée aussi à une pièce de charpente suspendue sur un axe auquel sont attachées trente ou quarante scies perpendiculaires, dix dans chaque compartiment ou cadre. Selon le mouvement de la roue, les scies s'élèvent et s'abaissent[3].   
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ailes du moulin sont fixées sur l'arbre tournant. Centrée sur l'arbre, la roue principale ou rouet en pousse une autre, placée immédiatement au-dessous, et fixée aussi à une pièce de charpente suspendue sur un axe auquel sont attachées trente ou quarante scies perpendiculaires, dix dans chaque compartiment ou cadre. Selon le mouvement de la roue, les scies s'élèvent et s'abaissent.   
 Le système de soulèvement des scies imprime également l'avancement des grumes, via des vindas, ou une sorte de roue à rochet.  
 Le scieur dans les moulins s’appelle en néerlandais « zaagmolenaar », dans les Voges « sagard  ».  
 La scierie à vent vient aux Pays-Bas en trois versions: 
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scierie_%C3%A0_vent</t>
+          <t>Scierie_à_vent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1592, Cornelis Corneliszoon van Uitgeest a combiné un vilebrequin avec un moulin à vent dans une première scierie. Jusqu'à ce jour, il fallait environ trente jours pour couper les planches d'un arbre. L'invention de Corneliszoon a permis de couper beaucoup plus rapidement et d'accélérer la construction des navires. Son invention a contribué au progrès technique de la Hollande et a été déterminant dans le siècle d'or néerlandais[4] ,[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1592, Cornelis Corneliszoon van Uitgeest a combiné un vilebrequin avec un moulin à vent dans une première scierie. Jusqu'à ce jour, il fallait environ trente jours pour couper les planches d'un arbre. L'invention de Corneliszoon a permis de couper beaucoup plus rapidement et d'accélérer la construction des navires. Son invention a contribué au progrès technique de la Hollande et a été déterminant dans le siècle d'or néerlandais ,. 
 En 1593, il obtient un octroi pour son invention. Le mouvement circulaire des ailes converti en un mouvement de haut en bas du cadre des scies par le vilebrequin. Le vilebrequin en fer forgé a généralement trois manivelles, qui sont à angle de 120 ° les unes par rapport aux autres. Il existe également des vilebrequins avec deux manivelles ou quatre manivelles. 
 Corneliszoon a conçu un dispositif d'avance (krabbelwerk) pour faire glisser le tronc allongé sur un chariot pendant le sciage. Le dispositif d'avance consiste en une roue à cran rotative (krabbelrad ) avec attachée une roue dentée, avec une crémaillère. À chaque mouvement vers le haut du cadre de la scie, le dispositif d'avance fait tourner la roue à cran d'un ou plusieurs crans, tirant le chariot vers l'avant. À chaque mouvement vers le bas du cadre de scie, la coupe est effectuée, le cadre de scie s'inclinant légèrement vers l'avant à travers l'aubier et le bois de cœur pendant la coupe. Ces inventions ont amené la prospérité dans les scieries de la région du Zaan. 
 En particulier dans la Zaanstreek, autour d'Amsterdam et de Dordrecht, les paltrokmolen ont été largement utilisé pour la construction navale à partir de 1600. Dans les paltrokmolen , les troncs d'arbres à scier sont soulevés hore de l'eau du balkengat (bassin à grume) avec une grue actionnée par le vent, dans une scierie avec un hangar à scie, les troncs ont été amenés dans le hangar à scie avec l'énergie éolienne de l'eau sur une rampe de halage. 
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scierie_%C3%A0_vent</t>
+          <t>Scierie_à_vent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Vitesse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitesse de rotation dépend des facteurs qui suivent: 
 Le type de moulin: paltrok ou porter supérieur
